--- a/ma_sim_H4.xlsx
+++ b/ma_sim_H4.xlsx
@@ -255,6 +255,8895 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for AUD_CAD MA_20_MA_80</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'AUD_CAD'!$L$2:$L$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>44293.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44299.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44300.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44314.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44355.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44365.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44384.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44398.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44413.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44418.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44438.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44455.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44483.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44504.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44543.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44564.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44595.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44635.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44642.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44662.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44705.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44719.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44732.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44734.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44761.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44778.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44778.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44792.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44824.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44831.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44860.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44869.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44874.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44914.75</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44927.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44962.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45002.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45013.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45036.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45044.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45049.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45061.375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45084.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45099.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45114.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45131.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45163.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUD_CAD'!$M$2:$M$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>-19.20000000000033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-113.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-192.8999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.90000000000126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-42.99999999999859</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-90.39999999999826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-206.1999999999975</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-234.9999999999974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-271.8999999999982</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-270.5999999999986</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-238.3999999999986</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-157.1999999999985</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-113.8999999999979</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.399999999996979</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60.00000000000336</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>188.0000000000037</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>334.7000000000044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170.7000000000047</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>194.8000000000049</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>497.4000000000055</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>491.0000000000058</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>478.5000000000061</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>376.5000000000063</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>478.0000000000061</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>561.4000000000062</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>573.8000000000064</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>585.9000000000069</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>597.8000000000071</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>540.1000000000078</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>716.2000000000079</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>716.8000000000073</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>698.2000000000077</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1115.400000000009</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1048.000000000009</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1110.400000000009</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1188.700000000009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1119.700000000009</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1161.200000000009</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1067.100000000008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>987.8000000000084</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>948.3000000000083</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1026.800000000008</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>996.1000000000093</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1051.000000000009</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1068.000000000009</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1219.000000000009</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1219.000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for GBP_AUD MA_30_MA_80</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'GBP_AUD'!$L$2:$L$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>44272.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44280.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44295.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44309.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44312.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44319.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44357.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44364.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44377.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44381.875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44383.375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44385.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44421.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44426.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44438.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44453.375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44466.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44511.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44540.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44553.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44558.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44560.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44585.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44588.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44602.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44664.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44683.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44693.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44707.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44726.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44747.875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44775.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44783.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44812.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44826.375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44837.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44869.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44886.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44918.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44945.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44952.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44971.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45034.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45041.875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45054.875</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45064.375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45084.375</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45098.375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45126.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45138.375</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45166.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GBP_AUD'!$M$2:$M$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>-159.800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-276.9000000000021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-175.3000000000027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-250.600000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-351.0000000000035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-21.40000000000254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-183.8000000000029</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-190.2000000000048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-173.2000000000067</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-247.2000000000074</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-454.2000000000069</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-183.400000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-300.7000000000072</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-353.3000000000076</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-381.4000000000074</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-461.4000000000074</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.99999999999159</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>143.3999999999912</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>98.79999999998989</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>139.7999999999898</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92.79999999999055</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>419.2999999999912</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>321.999999999991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>221.1999999999902</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1681.799999999991</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1977.899999999992</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1965.599999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1937.099999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2216.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2337.499999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2278.999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1980.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2282.600000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2260.000000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1904.200000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2061.700000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1681.000000000006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1786.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1865.600000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1373.200000000006</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1363.800000000006</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2379.400000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2136.500000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2036.300000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1881.600000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1753</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1546.399999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1816.099999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1779.199999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2259.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2259.599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50100001"/>
+        <c:axId val="50100002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50100001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50100002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50100001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for GBP_CAD MA_20_MA_40</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'GBP_CAD'!$L$2:$L$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>44277.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44279.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44284.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44294.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44302.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44302.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44302.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44312.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44328.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44333.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44334.875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44341.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44344.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44349.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44355.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44371.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44379.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44381.875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44384.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44399.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44404.875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44410.875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44413.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44418.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44426.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44433.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44439.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44445.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44445.375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44455.875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44476.375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44477.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44487.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44496.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44497.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44498.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44498.375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44498.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44516.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44525.25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44530.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44536.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44544.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44564.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44567.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44572.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44587.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44601.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44605.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44616.75</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44656.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44656.375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44661.875</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44670.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44685.375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44686.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44692.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44694.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44700.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44712.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44722.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44726.375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44729.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44736.375</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44761.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44763.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44768.875</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44778.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44817.875</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44824.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44825.875</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44827.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44834.375</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44844.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44847.875</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44855.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44860.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44867.875</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44875.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44914.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44928.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44931.25</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44937.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44951.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44956.75</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44956.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44967.75</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44972.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44978.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44991.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44994.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45014.375</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45022.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45028.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45036.875</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45054.875</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45070.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45082.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45089.375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45099.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45107.375</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45127.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45134.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45139.375</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45142.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45152.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45154.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45162.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45169.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GBP_CAD'!$M$2:$M$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>-104.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-182.1000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-254.3000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-247.9999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-288.1999999999985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-323.3999999999982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-258.1999999999973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-35.79999999999694</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-68.99999999999685</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-135.3999999999966</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-187.7999999999957</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-260.9999999999957</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-353.9999999999965</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-391.9999999999968</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-336.7999999999971</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-294.7999999999973</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-342.2999999999976</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-508.1999999999987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-473.2999999999988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-690.3999999999977</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-805.5999999999974</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-866.2999999999976</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-956.7999999999976</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-957.399999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-974.7999999999978</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-996.6999999999991</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-967.7000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-953.7000000000018</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-812.7000000000018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-420.9000000000019</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-441.2000000000039</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-354.3000000000052</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-396.9000000000067</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-486.7000000000088</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-509.5000000000094</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-528.9000000000099</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-617.4000000000101</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-534.6000000000095</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-511.9000000000095</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-661.8000000000101</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-791.5000000000116</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-834.600000000012</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-603.4000000000117</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-695.6000000000117</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-830.200000000012</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-717.6000000000115</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-584.50000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-691.9000000000098</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-818.4000000000102</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-50.9000000000093</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-95.00000000000733</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-168.6000000000054</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-155.4000000000033</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>207.6999999999973</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-8.20000000000266</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-82.60000000000157</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-170.6000000000008</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-368.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-409.9999999999993</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-159.3999999999984</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-271.9999999999989</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-568.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-550.3999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-188.9999999999993</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-366.1999999999988</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-468.4999999999984</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-349.5999999999989</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>119.2000000000014</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>119.2000000000014</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>93.30000000000049</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-288.9999999999993</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-692.9999999999992</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-670.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1018.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1153</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1407</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1472.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1410.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-323.5000000000011</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-82.99999999999989</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-238.1999999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-274.2000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-94.79999999999944</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-167.8999999999987</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-151.9999999999989</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>306.6000000000012</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>449.4000000000019</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>354.2000000000021</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>388.0000000000015</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>394.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>791.9000000000008</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>740.9000000000019</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>669.8000000000025</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>640.0000000000026</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>738.3000000000027</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>784.8000000000031</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>639.0000000000027</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>567.8000000000026</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>620.400000000003</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>583.4000000000027</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>712.6000000000031</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>753.400000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>803.2000000000038</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>710.0000000000039</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>732.8000000000045</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>620.000000000005</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>543.6000000000041</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>507.1000000000026</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>507.1000000000026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50110001"/>
+        <c:axId val="50110002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50110001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50110002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50110001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for GBP_JPY MA_10_MA_20</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'GBP_JPY'!$L$2:$L$207</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="206"/>
+                <c:pt idx="0">
+                  <c:v>44273.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44274.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44281.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44292.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44298.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44299.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44299.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44299.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44304.875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44307.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44313.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44319.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44320.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44323.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44326.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44330.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44332.875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44336.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44340.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44340.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44343.375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44348.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44350.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44354.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44358.375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44363.875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44369.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44372.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44378.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44382.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44382.875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44383.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44389.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44391.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44399.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44410.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44413.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44418.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44418.875</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44420.875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44432.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44437.875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44438.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44446.375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44449.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44453.875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44456.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44459.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44462.375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44468.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44473.375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44476.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44476.875</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44490.875</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44495.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44497.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44509.75</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44510.25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44515.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44519.25</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44523.75</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44525.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44537.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44539.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44543.25</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44544.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44545.25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44550.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44552.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44568.25</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44571.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44571.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44573.25</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44574.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44579.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44579.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44587.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44599.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44600.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44606.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44608.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44610.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44621.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44621.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44623.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44624.75</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44629.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44650.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44652.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44673.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44679.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44684.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44697.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44700.375</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44704.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44706.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44707.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44722.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44728.875</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44735.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44739.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44741.875</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44750.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44754.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44756.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44763.875</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44768.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44770.875</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44776.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44778.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44781.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44783.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44790.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44792.375</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44799.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44804.375</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44806.375</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44809.875</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44810.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44816.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44816.375</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44818.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44824.875</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44825.875</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44832.375</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44840.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44846.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44854.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44859.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44862.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44864.875</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44866.875</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44872.75</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44874.75</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44880.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44890.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44896.75</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44896.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44900.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44909.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44911.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44911.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44922.25</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44925.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44930.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44938.25</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44943.75</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44951.25</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44952.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44957.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44963.75</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44965.25</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44966.75</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44973.75</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44977.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44980.75</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44984.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44987.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44992.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44992.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44995.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44998.875</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>45000.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>45001.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>45005.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>45005.875</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>45006.375</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>45006.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>45006.875</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>45008.875</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>45013.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>45021.875</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>45023.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>45030.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>45034.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>45037.375</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>45040.875</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>45042.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>45043.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>45049.375</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>45054.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>45056.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>45061.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>45077.375</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>45078.875</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>45083.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>45085.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>45098.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>45099.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>45106.375</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>45109.875</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>45113.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>45121.375</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>45125.375</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>45128.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>45132.875</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>45134.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>45134.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>45138.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>45141.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>45146.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>45158.875</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>45160.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>45161.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>45166.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>45170.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GBP_JPY'!$M$2:$M$207</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="206"/>
+                <c:pt idx="0">
+                  <c:v>-95.69999999999936</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-67.30000000000018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.69999999999754</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180.499999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124.8999999999938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126.3999999999925</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.4999999999917</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.69999999999254</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.29999999999279</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.49999999999159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>238.8999999999896</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>242.2999999999888</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>262.2999999999877</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130.5999999999869</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>216.5999999999883</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>214.8999999999887</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>169.3999999999875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>140.6999999999869</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>145.3999999999866</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67.09999999998502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>110.2999999999838</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>87.59999999998342</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.09999999998229</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.900000000017599</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-25.70000000001755</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.6999999999814</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.100000000018554</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46.19999999998186</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>53.59999999998308</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56.49999999998556</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-62.50000000001421</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-76.90000000001476</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-98.60000000001321</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30.49999999998647</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170.2999999999861</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>166.8999999999869</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>221.899999999988</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>228.8999999999902</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>179.4999999999902</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>362.19999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>396.7999999999904</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>373.49999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>418.8999999999908</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>337.8999999999905</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>211.2999999999886</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>229.4999999999874</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>121.0999999999871</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.79999999998813</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-64.7000000000105</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-145.3000000000117</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-59.30000000001314</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-76.30000000001189</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>445.4999999999899</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>467.1999999999912</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>362.0999999999924</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>667.199999999994</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>686.6999999999962</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>698.8999999999976</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>701.6999999999967</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>614.2999999999944</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>583.6999999999932</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>907.6999999999941</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>868.6999999999955</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>816.4999999999964</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>805.7999999999964</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>772.8999999999957</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>691.4999999999964</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>572.2999999999985</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1154.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1123.899999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>999.6999999999957</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>888.4999999999962</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>777.6999999999987</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>799.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>795.2000000000027</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>916.900000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1059.900000000005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1017.300000000006</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>994.4000000000074</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>940.7000000000068</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>919.500000000005</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1138.900000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1101.000000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1028.1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>751.9000000000003</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>685.0999999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1390.699999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1287.699999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1744.199999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1969.899999999996</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1983.999999999995</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2460.099999999994</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2426.699999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2247.499999999993</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2177.099999999992</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2070.899999999991</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2583.499999999991</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2699.699999999992</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2760.199999999991</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2623.299999999991</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2570.09999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2857.199999999988</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2860.199999999988</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2670.299999999988</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2665.899999999987</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2655.899999999987</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2555.299999999987</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2669.499999999987</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2705.599999999989</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2671.399999999991</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2575.099999999991</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2492.299999999991</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2385.699999999991</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2438.699999999991</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2410.09999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2316.699999999991</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2353.699999999991</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2213.799999999991</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2430.29999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2382.09999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2248.799999999991</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2433.999999999991</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2303.999999999993</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3087.499999999994</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3807.799999999994</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3703.099999999994</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4217.199999999993</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4135.399999999992</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4277.699999999993</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4067.699999999993</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3805.699999999993</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3867.599999999993</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3613.299999999992</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3676.899999999991</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3893.599999999992</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4087.29999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4043.099999999989</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3920.899999999991</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4033.299999999994</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4045.199999999994</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3984.099999999992</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4624.299999999991</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4534.29999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4587.399999999991</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4613.49999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4811.499999999989</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>5048.09999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4946.699999999993</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4865.199999999993</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4925.699999999992</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4799.599999999992</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4679.699999999993</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4797.699999999994</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4715.899999999996</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4759.699999999998</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4587.499999999997</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4613.099999999998</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4623.7</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4471.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4311.499999999999</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4140.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3982.5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3657.6</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3638.6</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3681.699999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3581.299999999997</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3522.099999999996</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3467.899999999996</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3303.499999999995</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3248.799999999995</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>3485.599999999998</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3398.699999999998</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3594.699999999995</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3550.799999999993</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3490.499999999992</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3295.899999999992</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>3176.099999999991</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3097.29999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3277.09999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3142.799999999992</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3053.499999999991</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2965.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>3195.49999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>3076.199999999992</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2963.499999999994</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2853.599999999995</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3550.699999999995</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3443.499999999995</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3490.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3412.699999999993</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3386.299999999992</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3488.899999999992</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3364.099999999993</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3223.699999999993</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3185.299999999995</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3216.899999999995</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3187.499999999994</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3031.499999999994</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3007.399999999995</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2977.699999999995</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3204.099999999994</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3097.299999999992</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2882.299999999992</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2828.699999999992</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2747.099999999991</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2747.099999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50120001"/>
+        <c:axId val="50120002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50120001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50120002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50120001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for GBP_USD MA_40_MA_80</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'GBP_USD'!$L$2:$L$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>44272.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44278.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44292.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44299.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44306.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44321.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44323.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44355.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44392.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44397.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44406.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44420.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44440.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44459.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44480.875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44501.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44551.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44585.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44599.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44617.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44643.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44652.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44704.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44720.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44740.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44743.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44764.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44784.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44823.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44823.875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44840.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44850.875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44854.375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44873.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44879.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44916.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44937.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44960.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45001.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45037.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45042.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45063.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45082.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45106.875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45117.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45132.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45160.875</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45163.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'GBP_USD'!$M$2:$M$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>-63.99999999999961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-93.19999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-196.0000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-416.4000000000012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-467.9000000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-515.8000000000018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-315.9000000000023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.600000000001046</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-257.8000000000013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-628.6000000000013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-724.5999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-640.1999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-780.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-722.0000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-643.4000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-197.4000000000008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76.79999999999916</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.99999999999866</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-118.7000000000026</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.39999999999807</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-51.40000000000136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>531.5999999999988</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>542.8999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>815.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>577.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>600.2000000000019</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>820.000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1660.300000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1689.600000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1832</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1768.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1738.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2061.300000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1881.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2234.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2213.300000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2208.600000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2258.200000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2610.200000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2572.600000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2532.300000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2526.200000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2710.100000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2509.100000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2592.600000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2760.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2645.400000000007</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2645.400000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50130001"/>
+        <c:axId val="50130002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50130001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50130002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50130002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50130001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for USD_CAD MA_40_MA_80</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'USD_CAD'!$L$2:$L$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>44281.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44294.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44350.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44351.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44355.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44406.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44418.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44439.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44452.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44469.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44501.375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44542.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44546.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44559.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44587.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44607.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44608.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44623.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44624.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44624.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44629.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44638.375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44662.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44701.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44726.375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44741.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44749.375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44763.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44782.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44789.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44792.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44818.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44823.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44858.875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44889.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44923.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44951.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44953.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44965.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45007.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45041.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45054.375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45065.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45083.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45110.875</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45121.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45135.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'USD_CAD'!$M$2:$M$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>34.89999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>588.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>607.6000000000037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>578.1000000000035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>929.8000000000027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>874.100000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>980.3000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>958.6999999999988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1030.899999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1370.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1699.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1621.599999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1604.699999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1678.299999999994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1703.299999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1741.099999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1738.499999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1727.599999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1762.699999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1660.499999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1459.899999999993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1491.999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1689.499999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1552.099999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1505.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1387.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1279.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1324.499999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1366.899999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1269.499999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1460.899999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1392.499999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1828.699999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2175.699999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2366.099999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2529.499999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2479.699999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2427.899999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2757.299999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2888.899999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2646.699999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2473.699999999994</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2389.699999999994</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2554.799999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2521.799999999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2520.199999999994</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2520.199999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50140001"/>
+        <c:axId val="50140002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50140001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50140002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50140002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50140001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for USD_JPY MA_20_MA_120</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'USD_JPY'!$L$2:$L$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>44298.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44318.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44337.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44344.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44385.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44417.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44425.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44431.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44431.875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44433.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44440.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44440.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44445.375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44446.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44453.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44463.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44507.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44515.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44530.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44552.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44575.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44591.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44613.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44620.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44622.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44624.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44697.375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44714.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44768.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44791.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44862.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44866.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44869.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44963.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44999.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45027.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45058.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45060.875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45118.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45139.04166666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'USD_JPY'!$M$2:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>-1.200000000000045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-72.19999999999942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-194.1999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-203.2999999999987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-260.599999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-359.7999999999985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-402.6999999999987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-403.7999999999982</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-426.2999999999977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-421.8999999999966</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-416.4999999999964</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-430.4999999999964</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-472.5999999999956</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-534.9999999999952</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-647.1999999999953</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-363.0999999999959</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-386.0999999999963</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-487.9999999999954</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-619.8999999999942</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-660.3999999999943</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-832.1999999999946</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-903.499999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-985.7999999999934</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1034.599999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1070.599999999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>317.200000000008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>257.8000000000086</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>930.8000000000076</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1004.800000000008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2188.00000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2118.800000000012</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2049.700000000015</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3544.000000000016</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3653.000000000017</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3699.200000000018</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3835.900000000021</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3725.200000000021</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4193.00000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3976.000000000021</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3976.000000000021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50150001"/>
+        <c:axId val="50150002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50150001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50150002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50150002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50150001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for AUD_JPY MA_40_MA_80</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'AUD_JPY'!$L$2:$L$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>44279.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44291.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44299.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44307.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44335.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44348.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44358.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44419.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44425.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44439.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44454.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44469.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44504.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44544.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44574.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44600.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44678.875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44706.375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44729.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44740.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44743.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44757.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44774.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44784.875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44825.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44854.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44873.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44910.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44915.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44931.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44945.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44951.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44964.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44972.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44985.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45019.875</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45029.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45030.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45043.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45050.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45077.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45082.875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45106.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45114.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45117.375</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45131.375</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45140.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45153.875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45154.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45154.875</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45160.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45167.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUD_JPY'!$M$2:$M$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>-153.3999999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-265.9999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-286.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-179.2000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-240.3000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-302.600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.800000000001717</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-184.8000000000013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-251.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-270.7000000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-310.4000000000013</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.99999999999926</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>379.5999999999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>644.0999999999988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>772.9999999999989</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1729.699999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1941.399999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2389.999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2367.899999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2155.799999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1966.399999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1828.899999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1642.399999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1769.599999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1941.799999999994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2035.199999999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2275.099999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1749.199999999994</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1425.599999999994</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1228.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>905.0999999999942</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>846.2999999999948</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>730.4999999999961</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>663.1999999999973</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>844.9999999999985</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>792.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>775.6000000000012</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>678.2000000000022</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>553.9000000000027</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>628.3000000000027</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>459.400000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>809.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>896.700000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>841.0000000000007</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>783.2000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>705.0000000000007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>743.8000000000012</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>752.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>769.6000000000007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>774.4000000000009</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>696.8000000000013</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>696.8000000000013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for AUD_USD MA_20_MA_80</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'AUD_USD'!$L$2:$L$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>44278.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44293.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44320.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44323.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44330.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44335.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44335.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44356.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44361.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44411.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44417.875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44438.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44453.875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44474.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44503.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44540.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44567.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44574.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44579.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44600.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44635.375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44638.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44661.875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44701.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44722.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44761.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44778.375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44781.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44782.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44783.375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44791.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44817.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44818.875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44859.375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44903.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44904.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44914.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44924.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44963.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45005.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45014.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45015.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45026.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45030.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45041.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45050.875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45062.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45082.875</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45100.375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45118.875</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45132.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45168.54166666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'AUD_USD'!$M$2:$M$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>10.9999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113.7999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.30000000000153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-100.0000000000023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-97.20000000000283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-117.2000000000028</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-128.7000000000027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-166.8000000000025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142.3999999999981</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.69999999999854</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>112.5999999999982</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130.0999999999974</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>151.7999999999975</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>277.3999999999976</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>544.7999999999975</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>560.9999999999981</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>437.9999999999983</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>335.599999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>366.1999999999975</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>419.7999999999968</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>215.9999999999961</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>241.9999999999955</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>653.9999999999956</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>672.7999999999955</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>819.8999999999955</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>807.599999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>711.1999999999962</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>691.1999999999962</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>603.2999999999954</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>489.3999999999953</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>666.4999999999953</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>651.8999999999952</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1069.299999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1504.399999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1467.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1385.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1323.299999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1413.599999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1565.599999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1548.599999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1539.599999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1488.799999999994</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1366.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1207.899999999995</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1126.499999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1109.999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1185.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1246.399999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1209.599999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1279.999999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1578.699999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1578.699999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50030001"/>
+        <c:axId val="50030002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50030001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50030002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for CAD_JPY MA_40_MA_120</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'CAD_JPY'!$L$2:$L$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>44299.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44315.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44361.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44410.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44411.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44413.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44426.375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44442.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44454.375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44468.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44505.375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44558.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44587.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44603.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44614.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44627.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44629.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44630.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44692.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44713.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44774.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44795.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44826.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44850.875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44875.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44938.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44942.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44956.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44995.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45020.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45044.375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45047.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45118.875</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45138.04166666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CAD_JPY'!$M$2:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>-192.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.599999999999113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>313.9999999999986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262.9999999999981</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180.5999999999983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113.9999999999986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.49999999999858</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-74.30000000000092</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-222.5000000000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>149.2999999999981</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>336.7999999999981</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>412.299999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>330.9999999999988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>218.1999999999988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180.9999999999988</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>127.6999999999987</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.7999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>972.7999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>704.9999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>773.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>587.8999999999991</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>607.1999999999989</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>441.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>520.2999999999989</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1612.099999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1489.799999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1350.699999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1509.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1493.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1570.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1456.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1937.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1802.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1802.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50040001"/>
+        <c:axId val="50040002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50040001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50040002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50040001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for EUR_AUD MA_30_MA_120</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'EUR_AUD'!$L$2:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>44280.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44306.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44308.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44322.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44330.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44357.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44365.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44376.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44376.875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44418.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44426.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44441.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44459.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44470.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44508.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44519.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44523.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44525.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44526.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44550.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44571.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44609.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44673.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44713.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44726.875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44749.875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44805.875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44866.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44887.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44895.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44901.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44929.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44965.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44970.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44973.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45054.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45072.375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45083.375</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45102.875</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45134.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45139.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45167.20833333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EUR_AUD'!$M$2:$M$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>-55.09999999999904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-161.7999999999986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-250.5999999999986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-388.8999999999987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-333.4999999999977</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-499.7999999999969</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-548.0999999999958</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-565.1999999999946</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-434.9999999999943</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-618.3999999999945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-717.9999999999942</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-868.8999999999946</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1107.899999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-755.7999999999952</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-783.1999999999971</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-787.5999999999971</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-779.9999999999961</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-898.7999999999951</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-748.1999999999944</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-678.1999999999954</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-678.9999999999961</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>338.6000000000046</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>490.6000000000056</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>295.9000000000068</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.20000000000744</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>216.0000000000074</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1000.300000000007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>924.6000000000066</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>833.2000000000052</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>634.3000000000034</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>628.000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>778.000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>736.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>665.8999999999993</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1393.399999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1168.699999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>758.1999999999955</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>470.7999999999956</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>431.4999999999957</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>111.7999999999975</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>296.9999999999984</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>296.9999999999984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50050001"/>
+        <c:axId val="50050002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50050001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50050002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50050001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for EUR_CAD MA_10_MA_150</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'EUR_CAD'!$L$2:$L$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>44293.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44315.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44355.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44358.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44362.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44364.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44367.875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44369.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44377.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44378.375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44384.875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44414.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44427.375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44462.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44509.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44510.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44512.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44515.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44529.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44537.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44540.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44561.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44594.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44616.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44690.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44693.875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44704.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44713.375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44729.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44741.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44780.875</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44781.875</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44782.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44788.875</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44804.375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44809.375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44812.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44867.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44873.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44931.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44937.75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44963.75</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44986.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45020.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45020.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45027.875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45028.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45033.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45036.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45054.375</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45105.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45107.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45110.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45135.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45141.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45170.54166666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EUR_CAD'!$M$2:$M$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>-92.79999999999954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.3999999999988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.59999999999842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.600000000001256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-58.60000000000197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-124.0000000000019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-193.3000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-241.8000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-284.8000000000028</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-321.0000000000046</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-283.5000000000054</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-429.5000000000049</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-495.4000000000036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-69.00000000000352</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-159.2000000000038</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-233.4000000000036</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-387.5000000000028</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-511.4000000000019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-650.7000000000019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-770.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-725.1999999999992</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-634.5999999999985</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-604.2999999999977</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.600000000003774</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-224.1999999999967</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-366.8999999999967</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-489.9999999999949</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-599.499999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-713.0999999999954</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-341.7999999999943</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-395.3999999999946</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-445.5999999999949</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-485.799999999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-491.1999999999939</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-574.1999999999937</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-666.4999999999922</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-351.3999999999907</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-405.9999999999908</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>412.7000000000079</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>291.2000000000069</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>270.8000000000064</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>214.2000000000065</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>372.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>278.2000000000039</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>255.0000000000028</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>249.1000000000019</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>190.2000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>82.79999999999828</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28.39999999999716</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>278.999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>192.3999999999991</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>106.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>163.9999999999995</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>84.50000000000054</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>162.6000000000015</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>162.6000000000015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50060001"/>
+        <c:axId val="50060002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50060001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50060002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50060001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for EUR_GBP MA_10_MA_20</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'EUR_GBP'!$L$2:$L$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="221"/>
+                <c:pt idx="0">
+                  <c:v>44272.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44277.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44280.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44292.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44299.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44299.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44302.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44307.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44313.875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44319.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44319.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44323.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44326.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44329.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44334.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44335.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44337.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44341.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44343.375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44348.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44350.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44355.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44358.375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44362.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44364.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44368.375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44369.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44372.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44377.875</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44379.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44382.375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44385.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44389.375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44392.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44399.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44407.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44412.375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44420.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44432.375</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44434.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44442.375</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44446.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44448.375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44454.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44455.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44459.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44462.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44467.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44470.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44481.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44482.375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44491.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44495.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44497.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44509.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44510.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44512.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44521.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44522.25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44524.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44533.25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44535.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44537.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44538.75</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44542.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44545.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44545.25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44550.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44552.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44564.75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44565.25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44568.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44570.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44574.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44578.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44578.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44580.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44582.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44587.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44593.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44595.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44595.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44600.75</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44603.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44603.25</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44608.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44609.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44615.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44621.25</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44628.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44634.375</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44635.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44636.875</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44638.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44641.375</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44644.875</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44652.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44662.375</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44664.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44670.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44679.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44684.875</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44693.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44700.375</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44704.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44705.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44707.375</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44711.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44719.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44721.375</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44722.375</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44725.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44728.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44732.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44736.375</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44739.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44742.375</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44746.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44747.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44756.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44766.875</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44774.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44775.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44775.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44775.375</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44777.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44784.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44785.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44788.875</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44791.375</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44796.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44798.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44809.875</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44811.875</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44816.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44819.875</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44825.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44827.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44832.375</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44840.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44845.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44845.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44847.375</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44852.375</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44859.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44866.875</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44867.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44867.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44873.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44874.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44876.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44879.75</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44881.25</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44893.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44896.25</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44901.25</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44904.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44909.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44924.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44925.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44929.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44932.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44935.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44936.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44943.25</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44949.25</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44952.75</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44957.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44964.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44972.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44977.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44981.25</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44985.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44986.75</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44991.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44992.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44994.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>45006.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>45011.875</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>45014.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>45019.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>45023.375</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>45027.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>45028.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>45034.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>45037.375</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>45043.875</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>45048.875</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>45050.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>45057.875</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>45061.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>45068.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>45070.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>45071.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>45075.375</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>45082.375</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>45084.375</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>45090.375</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>45091.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>45097.875</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>45102.875</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>45104.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>45107.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>45117.375</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>45118.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>45120.375</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>45131.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>45135.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>45138.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>45138.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>45138.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>45139.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>45139.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>45139.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>45146.375</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>45148.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>45152.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>45159.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>45160.875</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>45162.375</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>45169.54166666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EUR_GBP'!$M$2:$M$222</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="221"/>
+                <c:pt idx="0">
+                  <c:v>-10.40000000000041</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-33.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-59.00000000000127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.79999999999873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.79999999999906</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.199999999999214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.19999999999935</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.40000000000072</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.2000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.80000000000097</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-23.19999999999876</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-29.19999999999921</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-28.19999999999932</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-54.49999999999953</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-69.89999999999939</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-102.7999999999984</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-136.8999999999976</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-148.1999999999972</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-170.3999999999972</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-183.5999999999971</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-216.1999999999975</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-250.9999999999979</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-314.7999999999973</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-338.0999999999967</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-347.6999999999964</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-370.5999999999965</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-376.8999999999967</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-397.1999999999965</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-427.5999999999969</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-471.1999999999972</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-522.9999999999968</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-503.9999999999967</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-454.7999999999964</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-401.1999999999961</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-408.5999999999957</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-374.599999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-300.7999999999945</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-308.1999999999941</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-299.3999999999942</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-304.1999999999946</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-349.6999999999952</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-354.4999999999955</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-372.199999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-403.5999999999963</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-422.5999999999964</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-512.5999999999965</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-553.7999999999967</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-445.399999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-439.9999999999972</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-406.5999999999971</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-442.7999999999967</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-451.3999999999964</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-326.9999999999964</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-335.9999999999965</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-368.3999999999967</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-230.9999999999969</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-223.3999999999971</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-222.9999999999967</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-119.7999999999967</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-147.2999999999971</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-179.999999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-272.7999999999965</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-334.399999999996</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-314.7999999999964</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-323.9999999999967</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-365.1999999999968</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-420.3999999999976</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-316.1999999999978</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-333.5999999999974</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-315.8999999999969</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-313.9999999999966</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-310.1999999999973</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-295.5999999999982</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-295.5999999999982</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-329.3999999999976</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-372.1999999999971</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-388.8999999999966</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-392.199999999996</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-409.4999999999949</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-481.1999999999939</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-463.9999999999933</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-450.5999999999933</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-464.5999999999928</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-450.7999999999923</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-498.7999999999926</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-504.2999999999931</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-500.5999999999933</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-484.9999999999932</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-430.2999999999935</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-488.3999999999933</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-534.1999999999924</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-556.1999999999922</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-587.7999999999927</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-545.9999999999931</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-468.199999999993</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-408.1999999999929</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-442.099999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-401.7999999999932</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-257.6999999999929</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-245.199999999992</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-157.1999999999917</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-125.2999999999915</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-161.999999999991</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-293.4999999999909</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-351.1999999999914</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-353.499999999992</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-373.5999999999927</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-441.7999999999932</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-510.1999999999928</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-586.3999999999924</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-630.1999999999929</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-687.7999999999928</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-708.3999999999922</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-768.9999999999918</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-819.0999999999914</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-864.1999999999915</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-869.3999999999912</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-733.5999999999908</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-703.5999999999908</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-565.7999999999906</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-553.8999999999904</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-568.0999999999902</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-611.7999999999901</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-684.0999999999897</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-661.799999999989</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-670.599999999989</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-696.5999999999894</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-703.5999999999898</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-710.6999999999897</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-704.999999999989</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-531.7999999999889</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-608.9999999999895</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-623.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-683.8999999999907</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-667.4999999999909</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-836.5999999999907</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-764.3999999999907</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-512.1999999999905</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-491.9999999999903</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-586.5999999999905</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-810.199999999991</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-889.9999999999908</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-847.1999999999902</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-697.5999999999893</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-699.1999999999887</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-708.3999999999889</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-572.5999999999897</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-647.7999999999905</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-705.7999999999907</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-734.99999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-758.3999999999889</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-639.8999999999887</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-687.1999999999888</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-710.799999999989</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-700.5999999999899</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-650.1999999999906</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-386.3999999999911</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-383.1999999999912</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-415.3999999999912</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-442.7999999999908</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-461.5999999999907</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-479.1999999999906</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-449.6999999999905</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-383.5999999999905</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-404.0999999999904</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-435.9999999999907</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-338.2999999999901</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-325.39999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-338.7999999999901</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-264.89999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-277.6999999999906</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-357.6999999999906</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-381.5999999999906</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-428.9999999999914</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-438.9999999999914</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-368.9999999999914</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-385.199999999992</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-391.5999999999929</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-408.2999999999935</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-401.9999999999933</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-400.7999999999932</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-414.1999999999933</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-384.0999999999926</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-409.0999999999921</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-430.2999999999922</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-426.5999999999923</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-493.5999999999927</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-458.399999999993</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-502.4999999999933</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-525.3999999999934</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-552.5999999999929</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-579.399999999993</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-603.7999999999942</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-554.1999999999945</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-585.2999999999939</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-573.9999999999932</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-603.9999999999932</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-602.9999999999933</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-593.9999999999932</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-627.0999999999935</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-638.3999999999932</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-635.4999999999931</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-706.1999999999932</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-738.3999999999933</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-638.8999999999932</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-568.7999999999925</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-577.199999999992</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-597.3999999999921</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-622.8999999999927</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-627.3999999999933</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-635.3999999999935</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-676.499999999993</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-656.1999999999921</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-675.3999999999913</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-706.0999999999915</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-639.3999999999919</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-661.7999999999921</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-707.8999999999921</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-712.0999999999918</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-712.0999999999918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50070001"/>
+        <c:axId val="50070002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50070001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50070002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50070001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for EUR_JPY MA_10_MA_40</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'EUR_JPY'!$L$2:$L$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>44274.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44284.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44295.375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44295.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44302.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44306.875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44307.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44312.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44321.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44323.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44340.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44341.375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44351.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44362.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44364.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44370.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44376.375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44379.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44382.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44399.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44411.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44419.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44420.875</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44431.875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44448.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44462.875</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44469.875</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44477.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44491.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44500.875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44501.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44525.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44526.25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44538.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44544.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44545.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44550.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44551.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44571.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44573.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44575.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44592.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44606.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44629.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44654.875</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44662.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44676.875</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44684.375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44692.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44699.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44699.875</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44704.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44725.375</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44732.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44738.875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44739.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44742.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44756.375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44764.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44778.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44784.875</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44790.875</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44796.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44802.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44819.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44833.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44841.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44847.375</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44861.875</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44865.375</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44866.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44872.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44875.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44882.75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44889.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44901.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44915.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44923.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44927.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44931.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44939.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44946.58333333334</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44956.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44959.25</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44959.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44963.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44965.25</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44971.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44980.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44984.25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44993.75</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45007.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45009.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45013.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45021.875</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45026.375</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45042.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45043.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45050.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45062.375</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45077.375</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45085.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45112.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45124.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45132.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45138.875</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45145.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45146.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45156.375</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45160.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45161.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45166.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>45170.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EUR_JPY'!$M$2:$M$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="113"/>
+                <c:pt idx="0">
+                  <c:v>36.40000000000043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>164.8000000000025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>167.2000000000025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137.6000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>146.6999999999985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130.8999999999969</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.39999999999782</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>155.7999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>96.50000000000034</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>177.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>107.4999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.49999999999739</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.09999999999513</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.69999999999447</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65.69999999999538</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-15.10000000000389</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-47.50000000000512</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-67.90000000000589</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90.09999999999536</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55.19999999999641</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>61.69999999999618</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56.09999999999502</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>130.299999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>249.2999999999938</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>289.2999999999944</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>208.4999999999951</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>116.9999999999959</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>340.4999999999973</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>357.1999999999974</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>394.6999999999974</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>682.2999999999979</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>588.2999999999981</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>607.1999999999974</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>600.4999999999967</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>529.8999999999978</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>415.3999999999982</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>304.0999999999968</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>499.8999999999967</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>430.2999999999969</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>339.5999999999958</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>477.2999999999968</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>575.0999999999976</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>764.3999999999977</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1464.499999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1391.499999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1485.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1449.300000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1386.900000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1593.500000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1598.700000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1566.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2099.100000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1925.900000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1936.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1803.600000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1684.100000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1991.700000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1977.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2233.299999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2331.699999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2341.699999999995</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2221.899999999994</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2066.499999999994</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2600.299999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2730.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2721.599999999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2645.999999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3017.499999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2890.899999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2765.699999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2685.199999999995</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2464.099999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2402.999999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2276.199999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2341.699999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2073.299999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1873.299999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1611.699999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1538.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1452.500000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1382.399999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1481.099999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1468.099999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1344.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1140.600000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>934.900000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>828.7000000000037</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1017.100000000005</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>975.1000000000064</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1066.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1265.300000000005</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1050.000000000006</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>920.4000000000067</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1008.100000000008</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>828.3000000000103</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1138.300000000012</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1163.500000000013</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1161.200000000014</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1098.200000000014</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1220.300000000015</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1163.500000000016</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1893.000000000018</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2048.100000000019</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2062.700000000021</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1981.50000000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1999.300000000019</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1932.100000000019</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1998.100000000019</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1920.800000000019</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1760.700000000019</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1634.60000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1505.100000000021</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1505.100000000021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50080001"/>
+        <c:axId val="50080002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50080001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50080002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50080001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GAIN_C for EUR_USD MA_30_MA_150</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'EUR_USD'!$L$2:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>44297.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44356.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44407.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44417.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44439.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44459.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44491.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44504.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44551.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44585.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44599.08333333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44616.41666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44651.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44657.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44705.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44726.04166666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44776.20833333334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44791.70833333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44818.875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44823.375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44855.375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44965.91666666666</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45000.54166666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45057.875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45091.875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45139.04166666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EUR_USD'!$M$2:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>281.8000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>594.1000000000018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>464.6000000000017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>399.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>305.9999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>369.6999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>267.6999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>524.5999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>554.3999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>440.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>172.000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>173.4000000000013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-75.39999999999881</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100.5000000000011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-210.7999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.69999999999965</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-74.79999999999927</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.20000000000171</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.60000000000134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>269.9000000000007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1237.000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1419.600000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1799.000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1882.400000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2034.500000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2034.500000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50090001"/>
+        <c:axId val="50090002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50090001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50090002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50090001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -547,6 +9436,10 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="6" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -1444,6 +10337,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1454,6 +10348,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="6" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -2383,6 +11281,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2393,6 +11292,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="6" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -3786,6 +12689,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3796,6 +12700,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="6" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -5965,6 +14873,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5975,6 +14884,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="6" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -6880,6 +15793,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6890,6 +15804,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="6" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -7787,6 +16705,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7797,6 +16716,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="6" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -8638,6 +17561,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8648,6 +17572,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="6" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -9585,6 +18513,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9595,6 +18524,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="6" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -10532,6 +19465,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10542,6 +19476,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="6" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -11335,6 +20273,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11345,6 +20284,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="6" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -12202,6 +21145,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12212,6 +21156,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="6" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -13181,6 +22129,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13191,6 +22140,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="6" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -15480,6 +24433,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15490,6 +24444,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="6" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -16915,6 +25873,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16925,6 +25884,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="6" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -17654,5 +26617,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>